--- a/static/midia/PlanilhaBase.xlsx
+++ b/static/midia/PlanilhaBase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\TCC-Salvar-\static\midia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\TCC\static\midia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha base" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="140">
-  <si>
-    <t>Alunos - Turmas</t>
-  </si>
-  <si>
-    <t>(Instituição) - (Ano)</t>
-  </si>
-  <si>
-    <t>(Curso)</t>
-  </si>
-  <si>
-    <t>(Turma)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="133">
   <si>
     <t>Instituição</t>
   </si>
@@ -80,15 +68,6 @@
   </si>
   <si>
     <t>Nome do pai</t>
-  </si>
-  <si>
-    <t>Escola Técnica Estadual Ministro Fernando Lyra - 2024</t>
-  </si>
-  <si>
-    <t>Técnico em Desenvolvimento de Sistemas</t>
-  </si>
-  <si>
-    <t>3º TDS A</t>
   </si>
   <si>
     <t>Ministro Fernando Lyra</t>
@@ -446,25 +425,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -496,13 +460,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -530,45 +487,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,10 +734,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -814,526 +761,356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="A2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="A3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="A4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="8"/>
+      <c r="K26" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1343,10 +1120,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1370,168 +1147,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7">
+        <v>28395472</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2006</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6">
+        <v>12</v>
+      </c>
+      <c r="N2" s="6">
+        <v>2024</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7">
+        <v>16807594</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
+      <c r="H3" s="6">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2005</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="6">
+        <v>15</v>
+      </c>
+      <c r="M3" s="6">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6">
+        <v>2024</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7">
+        <v>47610238</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="6">
+        <v>15</v>
+      </c>
+      <c r="M4" s="6">
+        <v>12</v>
+      </c>
+      <c r="N4" s="6">
+        <v>2024</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>19</v>
+      <c r="B5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>35926481</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2006</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="6">
+        <v>15</v>
+      </c>
+      <c r="M5" s="6">
+        <v>12</v>
+      </c>
+      <c r="N5" s="6">
+        <v>2024</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7">
-        <v>28395472</v>
+        <v>59173824</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H6" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J6" s="6">
-        <v>2006</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
+        <v>2005</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L6" s="6">
         <v>15</v>
@@ -1543,45 +1440,45 @@
         <v>2024</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>16807594</v>
+        <v>82415739</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H7" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J7" s="6">
-        <v>2005</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>30</v>
+        <v>2007</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L7" s="6">
         <v>15</v>
@@ -1593,45 +1490,45 @@
         <v>2024</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7">
-        <v>47610238</v>
+        <v>73681942</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H8" s="6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J8" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>30</v>
+        <v>2006</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="L8" s="6">
         <v>15</v>
@@ -1643,45 +1540,45 @@
         <v>2024</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7">
-        <v>35926481</v>
+        <v>94256187</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H9" s="6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J9" s="6">
-        <v>2006</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>30</v>
+        <v>2005</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L9" s="6">
         <v>15</v>
@@ -1693,45 +1590,45 @@
         <v>2024</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>59173824</v>
+        <v>21539876</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H10" s="6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J10" s="6">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L10" s="6">
         <v>15</v>
@@ -1743,45 +1640,45 @@
         <v>2024</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>82415739</v>
+        <v>68324915</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H11" s="6">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J11" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>30</v>
+        <v>2006</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="L11" s="6">
         <v>15</v>
@@ -1793,45 +1690,45 @@
         <v>2024</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>73681942</v>
+        <v>43769512</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H12" s="6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J12" s="6">
-        <v>2006</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>30</v>
+        <v>2005</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L12" s="6">
         <v>15</v>
@@ -1843,45 +1740,45 @@
         <v>2024</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>94256187</v>
+        <v>57894326</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H13" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="J13" s="6">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L13" s="6">
         <v>15</v>
@@ -1893,45 +1790,45 @@
         <v>2024</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D14" s="7">
-        <v>21539876</v>
+        <v>39615287</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H14" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J14" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>30</v>
+        <v>2006</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="L14" s="6">
         <v>15</v>
@@ -1943,45 +1840,45 @@
         <v>2024</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7">
-        <v>68324915</v>
+        <v>14982763</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H15" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J15" s="6">
-        <v>2006</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>30</v>
+        <v>2005</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L15" s="6">
         <v>15</v>
@@ -1993,45 +1890,45 @@
         <v>2024</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>43769512</v>
+        <v>26473819</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H16" s="6">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J16" s="6">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L16" s="6">
         <v>15</v>
@@ -2043,45 +1940,45 @@
         <v>2024</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D17" s="7">
-        <v>57894326</v>
+        <v>91358642</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="6">
         <v>26</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="6">
-        <v>6</v>
-      </c>
       <c r="I17" s="6" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="J17" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>30</v>
+        <v>2006</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="L17" s="6">
         <v>15</v>
@@ -2093,45 +1990,45 @@
         <v>2024</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D18" s="7">
-        <v>39615287</v>
+        <v>63827915</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H18" s="6">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J18" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L18" s="6">
         <v>15</v>
@@ -2143,45 +2040,45 @@
         <v>2024</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D19" s="7">
-        <v>14982763</v>
+        <v>75296183</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H19" s="6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J19" s="6">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L19" s="6">
         <v>15</v>
@@ -2193,45 +2090,45 @@
         <v>2024</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D20" s="7">
-        <v>26473819</v>
+        <v>32168497</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H20" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="J20" s="6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L20" s="6">
         <v>15</v>
@@ -2243,45 +2140,45 @@
         <v>2024</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D21" s="7">
-        <v>91358642</v>
+        <v>48729631</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H21" s="6">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="J21" s="6">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L21" s="6">
         <v>15</v>
@@ -2293,45 +2190,45 @@
         <v>2024</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D22" s="7">
-        <v>63827915</v>
+        <v>19347826</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="6">
+        <v>2</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="6">
-        <v>9</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="J22" s="6">
-        <v>2005</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>30</v>
+        <v>2007</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L22" s="6">
         <v>15</v>
@@ -2343,45 +2240,45 @@
         <v>2024</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D23" s="7">
-        <v>75296183</v>
+        <v>84632971</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H23" s="6">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J23" s="6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L23" s="6">
         <v>15</v>
@@ -2393,45 +2290,45 @@
         <v>2024</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D24" s="7">
-        <v>32168497</v>
+        <v>56287913</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H24" s="6">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="J24" s="6">
-        <v>2006</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>30</v>
+        <v>2005</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="L24" s="6">
         <v>15</v>
@@ -2443,45 +2340,45 @@
         <v>2024</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D25" s="7">
-        <v>48729631</v>
+        <v>37542698</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H25" s="6">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J25" s="6">
-        <v>2005</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>30</v>
+        <v>2007</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L25" s="6">
         <v>15</v>
@@ -2493,45 +2390,45 @@
         <v>2024</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D26" s="7">
-        <v>19347826</v>
+        <v>69813257</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H26" s="6">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="J26" s="6">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L26" s="6">
         <v>15</v>
@@ -2543,228 +2440,13 @@
         <v>2024</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" s="7">
-        <v>84632971</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="6">
-        <v>15</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="6">
-        <v>2006</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L27" s="6">
-        <v>15</v>
-      </c>
-      <c r="M27" s="6">
-        <v>12</v>
-      </c>
-      <c r="N27" s="6">
-        <v>2024</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="7">
-        <v>56287913</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="6">
-        <v>29</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="6">
-        <v>2005</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L28" s="6">
-        <v>15</v>
-      </c>
-      <c r="M28" s="6">
-        <v>12</v>
-      </c>
-      <c r="N28" s="6">
-        <v>2024</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="7">
-        <v>37542698</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="6">
-        <v>10</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="6">
-        <v>2007</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="6">
-        <v>15</v>
-      </c>
-      <c r="M29" s="6">
-        <v>12</v>
-      </c>
-      <c r="N29" s="6">
-        <v>2024</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="7">
-        <v>69813257</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="6">
-        <v>24</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="6">
-        <v>2006</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="6">
-        <v>15</v>
-      </c>
-      <c r="M30" s="6">
-        <v>12</v>
-      </c>
-      <c r="N30" s="6">
-        <v>2024</v>
-      </c>
-      <c r="O30" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="P30" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A4:P4"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>